--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunkwan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunkwan/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5769F4B7-5CC5-E741-B64A-3E4ED51D02C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE800B-0EC3-0840-A0C1-407AF47C9A3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{E9E85E6B-EB7F-C041-86BF-A40621285147}"/>
   </bookViews>
@@ -30,13 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="73">
   <si>
     <t>번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품코드번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -47,9 +43,6 @@
 (기계제작번호)</t>
   </si>
   <si>
-    <t>단위</t>
-  </si>
-  <si>
     <t>수량</t>
   </si>
   <si>
@@ -57,10 +50,6 @@
   </si>
   <si>
     <t>불용결정 사유</t>
-  </si>
-  <si>
-    <t>불용결정
-년월일</t>
   </si>
   <si>
     <t>회계명</t>
@@ -82,9 +71,6 @@
   <si>
     <t>150x69x75 (cm)</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개</t>
   </si>
   <si>
     <t>폐품</t>
@@ -415,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,10 +414,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -749,25 +731,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AB55A2-D96E-C84D-BEED-7DAA2DA617E4}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="28">
+    <row r="1" spans="1:10" ht="28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -788,1223 +770,997 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4">
-        <v>43469</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="D14" s="3">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="4">
-        <v>43469</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="4">
-        <v>43469</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="4">
-        <v>43469</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="4">
-        <v>43469</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="4">
-        <v>43469</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="3">
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="D26" s="3">
+        <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="3">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="4">
-        <v>43469</v>
+        <v>15</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunkwan/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khk/etj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE800B-0EC3-0840-A0C1-407AF47C9A3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B24ECB-50A5-A94F-B636-C4D5367E1175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{E9E85E6B-EB7F-C041-86BF-A40621285147}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{E9E85E6B-EB7F-C041-86BF-A40621285147}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="74">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -314,6 +315,10 @@
   <si>
     <t>180x80x185 (cm)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -733,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AB55A2-D96E-C84D-BEED-7DAA2DA617E4}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1767,4 +1772,25 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856F91F-B2EB-B644-9BA5-57D0941D4FC4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>